--- a/biology/Médecine/Alexander_Collie/Alexander_Collie.xlsx
+++ b/biology/Médecine/Alexander_Collie/Alexander_Collie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexander Collie, né le 2 juin 1793 en Écosse, mort le 8 novembre 1835 en Australie, est un chirurgien et naturaliste écossais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexander Collie est chirurgien à bord du H.M.S. Blossom de 1825 à 1828, participe comme naturaliste au voyage du lieutenant Preston en 1829 vers l'Australie, est gouverneur résident à King George Sound en 1831, puis chirurgien à Swan River de 1833 à 1835.
 Les illustrations et les notes qu'il prend durant son exploration des côtes occidentales des Amériques permettent à Vigors de rédiger la partie consacrée aux oiseaux dans Zoology of Captain Beechey’s Voyage, 1839.
